--- a/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/16.cursor_de_preenchimento/11+-+Tipos+de+Cursores+(Seguência).xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/2.basico_introducao_excel/16.cursor_de_preenchimento/11+-+Tipos+de+Cursores+(Seguência).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2. basico_introducao_excel\16.cursor_de_preenchimento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\2.basico_introducao_excel\16.cursor_de_preenchimento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F451A7-7058-4AAB-B430-1CF5BF0450BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545B337D-33EC-498D-BFC7-57F8F3021B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Material Curso de Excel do Básico ao Expert 2022</t>
   </si>
@@ -208,13 +208,46 @@
     <t>4. Coloque o nome dos meses de fevereiro a junho</t>
   </si>
   <si>
-    <t>fevereito</t>
-  </si>
-  <si>
     <t>Fevereiro</t>
   </si>
   <si>
     <t>Março</t>
+  </si>
+  <si>
+    <t>Segunda-feira</t>
+  </si>
+  <si>
+    <t>Terça-feira</t>
+  </si>
+  <si>
+    <t>Quarta-feira</t>
+  </si>
+  <si>
+    <t>Quinta-feira</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Maio</t>
+  </si>
+  <si>
+    <t>Junho</t>
+  </si>
+  <si>
+    <t>Julho</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Setembro</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>Novembro</t>
   </si>
 </sst>
 </file>
@@ -355,11 +388,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -677,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D13"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,12 +728,12 @@
     <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
@@ -744,7 +777,7 @@
         <v>44664</v>
       </c>
       <c r="D8" s="9">
-        <v>44607</v>
+        <v>44634</v>
       </c>
       <c r="F8" s="9">
         <v>44300</v>
@@ -753,7 +786,7 @@
         <v>0.29166666666666702</v>
       </c>
       <c r="J8" s="11">
-        <v>0.29166666666666702</v>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -761,16 +794,16 @@
         <v>44665</v>
       </c>
       <c r="D9" s="9">
-        <v>44608</v>
+        <v>44665</v>
       </c>
       <c r="F9" s="9">
         <v>44665</v>
       </c>
       <c r="H9" s="11">
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="J9" s="11">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666702</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>14</v>
@@ -781,16 +814,19 @@
         <v>44666</v>
       </c>
       <c r="D10" s="9">
-        <v>44609</v>
+        <v>44695</v>
       </c>
       <c r="F10" s="9">
         <v>45030</v>
       </c>
       <c r="H10" s="11">
-        <v>0.375000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="J10" s="11">
-        <v>0.375000000000001</v>
+        <v>0.3125</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -798,16 +834,19 @@
         <v>44667</v>
       </c>
       <c r="D11" s="9">
-        <v>44610</v>
+        <v>44726</v>
       </c>
       <c r="F11" s="9">
         <v>45396</v>
       </c>
       <c r="H11" s="11">
-        <v>0.41666666666666802</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="J11" s="11">
-        <v>0.41666666666666802</v>
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -815,16 +854,19 @@
         <v>44668</v>
       </c>
       <c r="D12" s="9">
-        <v>44613</v>
+        <v>44756</v>
       </c>
       <c r="F12" s="9">
         <v>45761</v>
       </c>
       <c r="H12" s="11">
-        <v>0.45833333333333498</v>
+        <v>0.45833333333333298</v>
       </c>
       <c r="J12" s="11">
-        <v>0.45833333333333498</v>
+        <v>0.35416666666666702</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -832,16 +874,19 @@
         <v>44669</v>
       </c>
       <c r="D13" s="9">
-        <v>44614</v>
+        <v>44787</v>
       </c>
       <c r="F13" s="9">
         <v>46126</v>
       </c>
       <c r="H13" s="11">
-        <v>0.500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="11">
-        <v>0.500000000000002</v>
+        <v>0.375</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -867,10 +912,91 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="15">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -881,7 +1007,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,12 +1019,12 @@
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -1193,7 +1319,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1215,8 +1341,8 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="16" t="s">
-        <v>52</v>
+      <c r="B46" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>50</v>
@@ -1227,7 +1353,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>50</v>
@@ -1237,8 +1363,8 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="16" t="s">
-        <v>52</v>
+      <c r="B48" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>50</v>
@@ -1273,12 +1399,12 @@
     <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
